--- a/examples/Defect - Copy.xlsx
+++ b/examples/Defect - Copy.xlsx
@@ -378,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="I7" sqref="I7:K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -389,7 +389,7 @@
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -400,7 +400,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -411,7 +411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -422,7 +422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>11</v>
       </c>
@@ -433,7 +433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>15</v>
       </c>
@@ -444,7 +444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -455,7 +455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>13</v>
       </c>
@@ -465,8 +465,17 @@
       <c r="C7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I7" s="1">
+        <v>41</v>
+      </c>
+      <c r="J7" s="2">
+        <v>42005</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>14</v>
       </c>
@@ -476,8 +485,17 @@
       <c r="C8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I8" s="1">
+        <v>42</v>
+      </c>
+      <c r="J8" s="2">
+        <v>42007</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>16</v>
       </c>
@@ -487,8 +505,17 @@
       <c r="C9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I9" s="1">
+        <v>43</v>
+      </c>
+      <c r="J9" s="2">
+        <v>42005</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>17</v>
       </c>
@@ -498,8 +525,17 @@
       <c r="C10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I10" s="1">
+        <v>44</v>
+      </c>
+      <c r="J10" s="2">
+        <v>42007</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>4</v>
       </c>
@@ -509,8 +545,17 @@
       <c r="C11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I11" s="1">
+        <v>45</v>
+      </c>
+      <c r="J11" s="2">
+        <v>42005</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>5</v>
       </c>
@@ -520,8 +565,17 @@
       <c r="C12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I12" s="1">
+        <v>46</v>
+      </c>
+      <c r="J12" s="2">
+        <v>42007</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>8</v>
       </c>
@@ -532,7 +586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>20</v>
       </c>
@@ -543,7 +597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>7</v>
       </c>
@@ -554,7 +608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>10</v>
       </c>

--- a/examples/Defect - Copy.xlsx
+++ b/examples/Defect - Copy.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python study\web crawler\Python_webcrawler\examples\"/>
@@ -17,16 +17,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>defect ID</t>
   </si>
@@ -34,9 +29,18 @@
     <t>date</t>
   </si>
   <si>
+    <t>priority</t>
+  </si>
+  <si>
     <t>Sprint date</t>
   </si>
   <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
     <t>Sprint 1</t>
   </si>
   <si>
@@ -49,13 +53,67 @@
     <t>Sprint 4</t>
   </si>
   <si>
-    <t>Start Date</t>
-  </si>
-  <si>
-    <t>End Date</t>
-  </si>
-  <si>
-    <t>priority</t>
+    <t>Sprint 5</t>
+  </si>
+  <si>
+    <t>Sprint 6</t>
+  </si>
+  <si>
+    <t>Sprint 7</t>
+  </si>
+  <si>
+    <t>Sprint 8</t>
+  </si>
+  <si>
+    <t>Sprint 9</t>
+  </si>
+  <si>
+    <t>Sprint 10</t>
+  </si>
+  <si>
+    <t>Sprint 11</t>
+  </si>
+  <si>
+    <t>Sprint 12</t>
+  </si>
+  <si>
+    <t>Sprint 13</t>
+  </si>
+  <si>
+    <t>Sprint 14</t>
+  </si>
+  <si>
+    <t>Sprint 15</t>
+  </si>
+  <si>
+    <t>Sprint 16</t>
+  </si>
+  <si>
+    <t>Sprint 17</t>
+  </si>
+  <si>
+    <t>Sprint 18</t>
+  </si>
+  <si>
+    <t>Sprint 19</t>
+  </si>
+  <si>
+    <t>Sprint 20</t>
+  </si>
+  <si>
+    <t>Sprint 21</t>
+  </si>
+  <si>
+    <t>Sprint 22</t>
+  </si>
+  <si>
+    <t>Sprint 23</t>
+  </si>
+  <si>
+    <t>Sprint 24</t>
+  </si>
+  <si>
+    <t>Sprint 25</t>
   </si>
 </sst>
 </file>
@@ -94,16 +152,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <name val="Calibri"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -378,18 +450,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7:K12"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -397,10 +471,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -410,8 +484,11 @@
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -421,339 +498,1031 @@
       <c r="C3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2">
+        <v>42010</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>22</v>
+      </c>
+      <c r="B5" s="2">
+        <v>42014</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>23</v>
+      </c>
+      <c r="B6" s="2">
+        <v>42020</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <f>D5+1</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>11</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B7" s="2">
         <v>42021</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" ref="D7:D47" si="0">D6+1</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>15</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B8" s="2">
         <v>42053</v>
       </c>
-      <c r="C5">
+      <c r="C8">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2">
+        <v>42055</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B10" s="2">
         <v>42066</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2">
+        <v>42070</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>25</v>
+      </c>
+      <c r="B12" s="2">
+        <v>42072</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>31</v>
+      </c>
+      <c r="B13" s="2">
+        <v>42080</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B14" s="2">
         <v>42099</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1">
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>42109</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>26</v>
+      </c>
+      <c r="B16" s="2">
+        <v>42109</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>27</v>
+      </c>
+      <c r="B17" s="2">
+        <v>42119</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2">
+        <v>42133</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2">
+        <v>42138</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>28</v>
+      </c>
+      <c r="B20" s="2">
+        <v>42143</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>29</v>
+      </c>
+      <c r="B21" s="2">
+        <v>42145</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>30</v>
+      </c>
+      <c r="B22" s="2">
+        <v>42156</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>4</v>
+      </c>
+      <c r="B23" s="2">
+        <v>42160</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>8</v>
+      </c>
+      <c r="B24" s="2">
+        <v>42200</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>32</v>
+      </c>
+      <c r="B25" s="2">
+        <v>42210</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>20</v>
+      </c>
+      <c r="B26" s="2">
+        <v>42224</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>7</v>
+      </c>
+      <c r="B27" s="2">
+        <v>42235</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27" s="3">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>34</v>
+      </c>
+      <c r="B28" s="2">
+        <v>42235</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28" s="3">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>33</v>
+      </c>
+      <c r="B29" s="2">
+        <v>42236</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" s="3">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>10</v>
+      </c>
+      <c r="B30" s="2">
+        <v>42249</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>35</v>
+      </c>
+      <c r="B31" s="2">
+        <v>42249</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>36</v>
+      </c>
+      <c r="B32" s="2">
+        <v>42272</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>12</v>
+      </c>
+      <c r="B33" s="2">
+        <v>42274</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" s="3">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>19</v>
+      </c>
+      <c r="B34" s="2">
+        <v>42301</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34" s="3">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>37</v>
+      </c>
+      <c r="B35" s="2">
+        <v>42301</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35" s="3">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>18</v>
+      </c>
+      <c r="B36" s="2">
+        <v>42302</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36" s="3">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>38</v>
+      </c>
+      <c r="B37" s="2">
+        <v>42302</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37" s="3">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>9</v>
+      </c>
+      <c r="B38" s="2">
+        <v>42320</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38" s="3">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>39</v>
+      </c>
+      <c r="B39" s="2">
+        <v>42329</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39" s="3">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>6</v>
+      </c>
+      <c r="B40" s="2">
+        <v>42349</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" s="3">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2">
+        <v>42368</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" s="3">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="J7" s="2">
+      <c r="B42" s="2">
         <v>42005</v>
       </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2">
-        <v>42109</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="I8" s="1">
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="J8" s="2">
+      <c r="B43" s="2">
         <v>42007</v>
       </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2">
-        <v>42133</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="I9" s="1">
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43" s="3">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="J9" s="2">
+      <c r="B44" s="2">
         <v>42005</v>
       </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>17</v>
-      </c>
-      <c r="B10" s="2">
-        <v>42138</v>
-      </c>
-      <c r="C10">
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" s="3">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2">
+        <v>42007</v>
+      </c>
+      <c r="C45">
         <v>3</v>
       </c>
-      <c r="I10" s="1">
+      <c r="D45" s="3">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2">
+        <v>42005</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46" s="3">
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="J10" s="2">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2">
         <v>42007</v>
       </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>4</v>
-      </c>
-      <c r="B11" s="2">
-        <v>42160</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="I11" s="1">
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47" s="3">
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="J11" s="2">
-        <v>42005</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>5</v>
-      </c>
-      <c r="B12" s="2">
-        <v>42162</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="I12" s="1">
-        <v>46</v>
-      </c>
-      <c r="J12" s="2">
-        <v>42007</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>8</v>
-      </c>
-      <c r="B13" s="2">
-        <v>42200</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>20</v>
-      </c>
-      <c r="B14" s="2">
-        <v>42224</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>7</v>
-      </c>
-      <c r="B15" s="2">
-        <v>42235</v>
-      </c>
-      <c r="C15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>10</v>
-      </c>
-      <c r="B16" s="2">
-        <v>42249</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>12</v>
-      </c>
-      <c r="B17" s="2">
-        <v>42274</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>19</v>
-      </c>
-      <c r="B18" s="2">
-        <v>42301</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2">
-        <v>42302</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>9</v>
-      </c>
-      <c r="B20" s="2">
-        <v>42320</v>
-      </c>
-      <c r="C20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>6</v>
-      </c>
-      <c r="B21" s="2">
-        <v>42349</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B21">
-    <sortCondition ref="B1"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.140625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2">
         <v>42005</v>
       </c>
       <c r="C2" s="2">
+        <v>42019</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2">
+        <v>42020</v>
+      </c>
+      <c r="C3" s="2">
+        <v>42034</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>42035</v>
+      </c>
+      <c r="C4" s="2">
+        <v>42049</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2">
+        <v>42050</v>
+      </c>
+      <c r="C5" s="2">
+        <v>42064</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2">
+        <v>42065</v>
+      </c>
+      <c r="C6" s="2">
+        <v>42079</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2">
+        <v>42080</v>
+      </c>
+      <c r="C7" s="2">
         <v>42094</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2">
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2">
         <v>42095</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C8" s="2">
+        <v>42109</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2">
+        <v>42110</v>
+      </c>
+      <c r="C9" s="2">
+        <v>42124</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2">
+        <v>42125</v>
+      </c>
+      <c r="C10" s="2">
+        <v>42139</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2">
+        <v>42140</v>
+      </c>
+      <c r="C11" s="2">
+        <v>42154</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2">
+        <v>42155</v>
+      </c>
+      <c r="C12" s="2">
+        <v>42169</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="2">
+        <v>42170</v>
+      </c>
+      <c r="C13" s="2">
+        <v>42184</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="2">
         <v>42185</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2">
-        <v>42186</v>
-      </c>
-      <c r="C4" s="2">
-        <v>42277</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2">
-        <v>42278</v>
-      </c>
-      <c r="C5" s="2">
-        <v>42369</v>
-      </c>
+      <c r="C14" s="2">
+        <v>42199</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="2">
+        <v>42200</v>
+      </c>
+      <c r="C15" s="2">
+        <v>42214</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="2">
+        <v>42215</v>
+      </c>
+      <c r="C16" s="2">
+        <v>42229</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="2">
+        <v>42230</v>
+      </c>
+      <c r="C17" s="2">
+        <v>42244</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="2">
+        <v>42245</v>
+      </c>
+      <c r="C18" s="2">
+        <v>42259</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="2">
+        <v>42260</v>
+      </c>
+      <c r="C19" s="2">
+        <v>42274</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="2">
+        <v>42275</v>
+      </c>
+      <c r="C20" s="2">
+        <v>42289</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="2">
+        <v>42290</v>
+      </c>
+      <c r="C21" s="2">
+        <v>42304</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="2">
+        <v>42305</v>
+      </c>
+      <c r="C22" s="2">
+        <v>42319</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="2">
+        <v>42320</v>
+      </c>
+      <c r="C23" s="2">
+        <v>42334</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="2">
+        <v>42335</v>
+      </c>
+      <c r="C24" s="2">
+        <v>42349</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="2">
+        <v>42350</v>
+      </c>
+      <c r="C25" s="2">
+        <v>42364</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="2">
+        <v>42365</v>
+      </c>
+      <c r="C26" s="2">
+        <v>42379</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <conditionalFormatting sqref="A11:A12">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -763,8 +1532,8 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/examples/Defect - Copy.xlsx
+++ b/examples/Defect - Copy.xlsx
@@ -16,6 +16,9 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$47</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
@@ -452,8 +455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D47"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1161,6 +1164,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D47"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
